--- a/信息学院软件专业职业技能鉴定情况及专利统计表(2).xlsx
+++ b/信息学院软件专业职业技能鉴定情况及专利统计表(2).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20367"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\林朝阳\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\林朝阳\Documents\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{873C4F30-E93A-48D4-AF32-42EB54564066}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AA060B3-50B7-4EB3-B266-B5855C5412DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -223,7 +223,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>2017-2018学年通过职业技能鉴定情况及专利统计表</t>
   </si>
@@ -265,6 +265,10 @@
   </si>
   <si>
     <t>计算机技术与软件专业技术资格-中级软件设计师</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>ssss</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -273,9 +277,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -337,6 +341,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -375,7 +387,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,16 +400,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -719,13 +734,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -905,13 +920,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1079,7 +1094,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1091,13 +1106,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -1116,18 +1131,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1140,7 +1155,9 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
